--- a/web/assets/template/giveaway_template.xlsx
+++ b/web/assets/template/giveaway_template.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\꽁지\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A0402A2-76AC-45FB-9DDE-78EE06475A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED61B80-A91C-49E7-96E9-D49E298BC9E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="26820" windowHeight="15315" xr2:uid="{4357A4CE-07D3-4862-99FD-6A5B44996FF9}"/>
   </bookViews>
   <sheets>
-    <sheet name="상품리스트" sheetId="1" r:id="rId1"/>
+    <sheet name="경품리스트" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">상품리스트!$A$4:$CU$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">경품리스트!$A$4:$CU$5</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1085,7 +1085,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
